--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC70"/>
+  <dimension ref="A1:AC72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6584,7 +6584,7 @@
         <v>10166</v>
       </c>
       <c r="U68" t="n">
-        <v>1297</v>
+        <v>1366</v>
       </c>
       <c r="V68" t="n">
         <v>1619</v>
@@ -6608,7 +6608,7 @@
         <v>191</v>
       </c>
       <c r="AC68" t="n">
-        <v>92596</v>
+        <v>92665</v>
       </c>
     </row>
     <row r="69">
@@ -6636,7 +6636,7 @@
         <v>8309</v>
       </c>
       <c r="H69" t="n">
-        <v>1566</v>
+        <v>1605</v>
       </c>
       <c r="I69" t="n">
         <v>3104</v>
@@ -6675,7 +6675,7 @@
         <v>10546</v>
       </c>
       <c r="U69" t="n">
-        <v>1366</v>
+        <v>1392</v>
       </c>
       <c r="V69" t="n">
         <v>1666</v>
@@ -6699,7 +6699,7 @@
         <v>246</v>
       </c>
       <c r="AC69" t="n">
-        <v>97515</v>
+        <v>97580</v>
       </c>
     </row>
     <row r="70">
@@ -6748,13 +6748,13 @@
         <v>2118</v>
       </c>
       <c r="O70" t="n">
-        <v>4055</v>
+        <v>3920</v>
       </c>
       <c r="P70" t="n">
         <v>1219</v>
       </c>
       <c r="Q70" t="n">
-        <v>1514</v>
+        <v>1533</v>
       </c>
       <c r="R70" t="n">
         <v>8643</v>
@@ -6766,7 +6766,7 @@
         <v>11139</v>
       </c>
       <c r="U70" t="n">
-        <v>1392</v>
+        <v>1421</v>
       </c>
       <c r="V70" t="n">
         <v>1690</v>
@@ -6775,7 +6775,7 @@
         <v>705</v>
       </c>
       <c r="X70" t="n">
-        <v>806</v>
+        <v>740</v>
       </c>
       <c r="Y70" t="n">
         <v>2519</v>
@@ -6787,10 +6787,192 @@
         <v>730</v>
       </c>
       <c r="AB70" t="n">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="AC70" t="n">
-        <v>102155</v>
+        <v>102023</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>733</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1538</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1733</v>
+      </c>
+      <c r="E71" t="n">
+        <v>7313</v>
+      </c>
+      <c r="F71" t="n">
+        <v>3734</v>
+      </c>
+      <c r="G71" t="n">
+        <v>11040</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1768</v>
+      </c>
+      <c r="I71" t="n">
+        <v>3351</v>
+      </c>
+      <c r="J71" t="n">
+        <v>861</v>
+      </c>
+      <c r="K71" t="n">
+        <v>4530</v>
+      </c>
+      <c r="L71" t="n">
+        <v>344</v>
+      </c>
+      <c r="M71" t="n">
+        <v>274</v>
+      </c>
+      <c r="N71" t="n">
+        <v>2347</v>
+      </c>
+      <c r="O71" t="n">
+        <v>4262</v>
+      </c>
+      <c r="P71" t="n">
+        <v>1361</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1581</v>
+      </c>
+      <c r="R71" t="n">
+        <v>8863</v>
+      </c>
+      <c r="S71" t="n">
+        <v>875</v>
+      </c>
+      <c r="T71" t="n">
+        <v>11721</v>
+      </c>
+      <c r="U71" t="n">
+        <v>1536</v>
+      </c>
+      <c r="V71" t="n">
+        <v>1768</v>
+      </c>
+      <c r="W71" t="n">
+        <v>756</v>
+      </c>
+      <c r="X71" t="n">
+        <v>806</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>2623</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>32187</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>772</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>303</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>108980</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>817</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1606</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1931</v>
+      </c>
+      <c r="E72" t="n">
+        <v>8109</v>
+      </c>
+      <c r="F72" t="n">
+        <v>4040</v>
+      </c>
+      <c r="G72" t="n">
+        <v>11470</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1837</v>
+      </c>
+      <c r="I72" t="n">
+        <v>3540</v>
+      </c>
+      <c r="J72" t="n">
+        <v>922</v>
+      </c>
+      <c r="K72" t="n">
+        <v>5028</v>
+      </c>
+      <c r="L72" t="n">
+        <v>366</v>
+      </c>
+      <c r="M72" t="n">
+        <v>283</v>
+      </c>
+      <c r="N72" t="n">
+        <v>2452</v>
+      </c>
+      <c r="O72" t="n">
+        <v>4756</v>
+      </c>
+      <c r="P72" t="n">
+        <v>1493</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>1608</v>
+      </c>
+      <c r="R72" t="n">
+        <v>9325</v>
+      </c>
+      <c r="S72" t="n">
+        <v>949</v>
+      </c>
+      <c r="T72" t="n">
+        <v>12391</v>
+      </c>
+      <c r="U72" t="n">
+        <v>1536</v>
+      </c>
+      <c r="V72" t="n">
+        <v>2019</v>
+      </c>
+      <c r="W72" t="n">
+        <v>861</v>
+      </c>
+      <c r="X72" t="n">
+        <v>932</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>2795</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>34053</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>898</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>303</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>116320</v>
       </c>
     </row>
   </sheetData>
@@ -6804,7 +6986,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC70"/>
+  <dimension ref="A1:AC72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13029,7 +13211,7 @@
         <v>921</v>
       </c>
       <c r="U68" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V68" t="n">
         <v>62</v>
@@ -13053,7 +13235,7 @@
         <v>4</v>
       </c>
       <c r="AC68" t="n">
-        <v>6436</v>
+        <v>6439</v>
       </c>
     </row>
     <row r="69">
@@ -13081,7 +13263,7 @@
         <v>638</v>
       </c>
       <c r="H69" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I69" t="n">
         <v>104</v>
@@ -13120,7 +13302,7 @@
         <v>971</v>
       </c>
       <c r="U69" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="V69" t="n">
         <v>65</v>
@@ -13144,7 +13326,7 @@
         <v>4</v>
       </c>
       <c r="AC69" t="n">
-        <v>6807</v>
+        <v>6810</v>
       </c>
     </row>
     <row r="70">
@@ -13175,7 +13357,7 @@
         <v>33</v>
       </c>
       <c r="I70" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J70" t="n">
         <v>30</v>
@@ -13199,7 +13381,7 @@
         <v>79</v>
       </c>
       <c r="Q70" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="R70" t="n">
         <v>652</v>
@@ -13211,7 +13393,7 @@
         <v>1019</v>
       </c>
       <c r="U70" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V70" t="n">
         <v>67</v>
@@ -13232,10 +13414,192 @@
         <v>14</v>
       </c>
       <c r="AB70" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AC70" t="n">
-        <v>7070</v>
+        <v>7077</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>28</v>
+      </c>
+      <c r="C71" t="n">
+        <v>72</v>
+      </c>
+      <c r="D71" t="n">
+        <v>49</v>
+      </c>
+      <c r="E71" t="n">
+        <v>585</v>
+      </c>
+      <c r="F71" t="n">
+        <v>141</v>
+      </c>
+      <c r="G71" t="n">
+        <v>712</v>
+      </c>
+      <c r="H71" t="n">
+        <v>33</v>
+      </c>
+      <c r="I71" t="n">
+        <v>123</v>
+      </c>
+      <c r="J71" t="n">
+        <v>30</v>
+      </c>
+      <c r="K71" t="n">
+        <v>271</v>
+      </c>
+      <c r="L71" t="n">
+        <v>13</v>
+      </c>
+      <c r="M71" t="n">
+        <v>10</v>
+      </c>
+      <c r="N71" t="n">
+        <v>90</v>
+      </c>
+      <c r="O71" t="n">
+        <v>344</v>
+      </c>
+      <c r="P71" t="n">
+        <v>85</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>97</v>
+      </c>
+      <c r="R71" t="n">
+        <v>691</v>
+      </c>
+      <c r="S71" t="n">
+        <v>29</v>
+      </c>
+      <c r="T71" t="n">
+        <v>1065</v>
+      </c>
+      <c r="U71" t="n">
+        <v>68</v>
+      </c>
+      <c r="V71" t="n">
+        <v>76</v>
+      </c>
+      <c r="W71" t="n">
+        <v>25</v>
+      </c>
+      <c r="X71" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>2654</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>7381</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>29</v>
+      </c>
+      <c r="C72" t="n">
+        <v>80</v>
+      </c>
+      <c r="D72" t="n">
+        <v>55</v>
+      </c>
+      <c r="E72" t="n">
+        <v>649</v>
+      </c>
+      <c r="F72" t="n">
+        <v>146</v>
+      </c>
+      <c r="G72" t="n">
+        <v>795</v>
+      </c>
+      <c r="H72" t="n">
+        <v>33</v>
+      </c>
+      <c r="I72" t="n">
+        <v>133</v>
+      </c>
+      <c r="J72" t="n">
+        <v>38</v>
+      </c>
+      <c r="K72" t="n">
+        <v>271</v>
+      </c>
+      <c r="L72" t="n">
+        <v>13</v>
+      </c>
+      <c r="M72" t="n">
+        <v>10</v>
+      </c>
+      <c r="N72" t="n">
+        <v>94</v>
+      </c>
+      <c r="O72" t="n">
+        <v>375</v>
+      </c>
+      <c r="P72" t="n">
+        <v>92</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>102</v>
+      </c>
+      <c r="R72" t="n">
+        <v>749</v>
+      </c>
+      <c r="S72" t="n">
+        <v>29</v>
+      </c>
+      <c r="T72" t="n">
+        <v>1123</v>
+      </c>
+      <c r="U72" t="n">
+        <v>68</v>
+      </c>
+      <c r="V72" t="n">
+        <v>83</v>
+      </c>
+      <c r="W72" t="n">
+        <v>29</v>
+      </c>
+      <c r="X72" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>58</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>2851</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>7944</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC72"/>
+  <dimension ref="A1:AC74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6818,7 +6818,7 @@
         <v>11040</v>
       </c>
       <c r="H71" t="n">
-        <v>1768</v>
+        <v>1793</v>
       </c>
       <c r="I71" t="n">
         <v>3351</v>
@@ -6881,7 +6881,7 @@
         <v>303</v>
       </c>
       <c r="AC71" t="n">
-        <v>108980</v>
+        <v>109005</v>
       </c>
     </row>
     <row r="72">
@@ -6948,7 +6948,7 @@
         <v>12391</v>
       </c>
       <c r="U72" t="n">
-        <v>1536</v>
+        <v>1644</v>
       </c>
       <c r="V72" t="n">
         <v>2019</v>
@@ -6957,7 +6957,7 @@
         <v>861</v>
       </c>
       <c r="X72" t="n">
-        <v>932</v>
+        <v>869</v>
       </c>
       <c r="Y72" t="n">
         <v>2795</v>
@@ -6969,10 +6969,192 @@
         <v>898</v>
       </c>
       <c r="AB72" t="n">
-        <v>303</v>
+        <v>351</v>
       </c>
       <c r="AC72" t="n">
-        <v>116320</v>
+        <v>116413</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-06</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>943</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1703</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2046</v>
+      </c>
+      <c r="E73" t="n">
+        <v>9243</v>
+      </c>
+      <c r="F73" t="n">
+        <v>4301</v>
+      </c>
+      <c r="G73" t="n">
+        <v>12310</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2046</v>
+      </c>
+      <c r="I73" t="n">
+        <v>3714</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1024</v>
+      </c>
+      <c r="K73" t="n">
+        <v>5389</v>
+      </c>
+      <c r="L73" t="n">
+        <v>385</v>
+      </c>
+      <c r="M73" t="n">
+        <v>288</v>
+      </c>
+      <c r="N73" t="n">
+        <v>2605</v>
+      </c>
+      <c r="O73" t="n">
+        <v>5524</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1657</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1647</v>
+      </c>
+      <c r="R73" t="n">
+        <v>9881</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1051</v>
+      </c>
+      <c r="T73" t="n">
+        <v>13295</v>
+      </c>
+      <c r="U73" t="n">
+        <v>1739</v>
+      </c>
+      <c r="V73" t="n">
+        <v>2100</v>
+      </c>
+      <c r="W73" t="n">
+        <v>943</v>
+      </c>
+      <c r="X73" t="n">
+        <v>932</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>2917</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>37853</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>998</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>351</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>126885</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-07</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1014</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1867</v>
+      </c>
+      <c r="D74" t="n">
+        <v>2199</v>
+      </c>
+      <c r="E74" t="n">
+        <v>10099</v>
+      </c>
+      <c r="F74" t="n">
+        <v>4528</v>
+      </c>
+      <c r="G74" t="n">
+        <v>13888</v>
+      </c>
+      <c r="H74" t="n">
+        <v>2262</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3988</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1027</v>
+      </c>
+      <c r="K74" t="n">
+        <v>5909</v>
+      </c>
+      <c r="L74" t="n">
+        <v>420</v>
+      </c>
+      <c r="M74" t="n">
+        <v>311</v>
+      </c>
+      <c r="N74" t="n">
+        <v>2770</v>
+      </c>
+      <c r="O74" t="n">
+        <v>5935</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1849</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1656</v>
+      </c>
+      <c r="R74" t="n">
+        <v>10824</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1131</v>
+      </c>
+      <c r="T74" t="n">
+        <v>14156</v>
+      </c>
+      <c r="U74" t="n">
+        <v>1739</v>
+      </c>
+      <c r="V74" t="n">
+        <v>2182</v>
+      </c>
+      <c r="W74" t="n">
+        <v>1098</v>
+      </c>
+      <c r="X74" t="n">
+        <v>1124</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>3082</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>39928</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>1214</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>423</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>136623</v>
       </c>
     </row>
   </sheetData>
@@ -6986,7 +7168,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC72"/>
+  <dimension ref="A1:AC74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13536,7 +13718,7 @@
         <v>795</v>
       </c>
       <c r="H72" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I72" t="n">
         <v>133</v>
@@ -13545,7 +13727,7 @@
         <v>38</v>
       </c>
       <c r="K72" t="n">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="L72" t="n">
         <v>13</v>
@@ -13569,13 +13751,13 @@
         <v>749</v>
       </c>
       <c r="S72" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T72" t="n">
         <v>1123</v>
       </c>
       <c r="U72" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="V72" t="n">
         <v>83</v>
@@ -13596,10 +13778,192 @@
         <v>21</v>
       </c>
       <c r="AB72" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AC72" t="n">
-        <v>7944</v>
+        <v>7972</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-06</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>35</v>
+      </c>
+      <c r="C73" t="n">
+        <v>89</v>
+      </c>
+      <c r="D73" t="n">
+        <v>56</v>
+      </c>
+      <c r="E73" t="n">
+        <v>751</v>
+      </c>
+      <c r="F73" t="n">
+        <v>160</v>
+      </c>
+      <c r="G73" t="n">
+        <v>849</v>
+      </c>
+      <c r="H73" t="n">
+        <v>35</v>
+      </c>
+      <c r="I73" t="n">
+        <v>146</v>
+      </c>
+      <c r="J73" t="n">
+        <v>45</v>
+      </c>
+      <c r="K73" t="n">
+        <v>305</v>
+      </c>
+      <c r="L73" t="n">
+        <v>13</v>
+      </c>
+      <c r="M73" t="n">
+        <v>10</v>
+      </c>
+      <c r="N73" t="n">
+        <v>97</v>
+      </c>
+      <c r="O73" t="n">
+        <v>410</v>
+      </c>
+      <c r="P73" t="n">
+        <v>101</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>104</v>
+      </c>
+      <c r="R73" t="n">
+        <v>803</v>
+      </c>
+      <c r="S73" t="n">
+        <v>35</v>
+      </c>
+      <c r="T73" t="n">
+        <v>1205</v>
+      </c>
+      <c r="U73" t="n">
+        <v>76</v>
+      </c>
+      <c r="V73" t="n">
+        <v>90</v>
+      </c>
+      <c r="W73" t="n">
+        <v>33</v>
+      </c>
+      <c r="X73" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>59</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>3045</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>8597</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-07</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>36</v>
+      </c>
+      <c r="C74" t="n">
+        <v>98</v>
+      </c>
+      <c r="D74" t="n">
+        <v>61</v>
+      </c>
+      <c r="E74" t="n">
+        <v>806</v>
+      </c>
+      <c r="F74" t="n">
+        <v>165</v>
+      </c>
+      <c r="G74" t="n">
+        <v>903</v>
+      </c>
+      <c r="H74" t="n">
+        <v>35</v>
+      </c>
+      <c r="I74" t="n">
+        <v>157</v>
+      </c>
+      <c r="J74" t="n">
+        <v>44</v>
+      </c>
+      <c r="K74" t="n">
+        <v>305</v>
+      </c>
+      <c r="L74" t="n">
+        <v>13</v>
+      </c>
+      <c r="M74" t="n">
+        <v>10</v>
+      </c>
+      <c r="N74" t="n">
+        <v>106</v>
+      </c>
+      <c r="O74" t="n">
+        <v>410</v>
+      </c>
+      <c r="P74" t="n">
+        <v>111</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>104</v>
+      </c>
+      <c r="R74" t="n">
+        <v>845</v>
+      </c>
+      <c r="S74" t="n">
+        <v>35</v>
+      </c>
+      <c r="T74" t="n">
+        <v>1394</v>
+      </c>
+      <c r="U74" t="n">
+        <v>76</v>
+      </c>
+      <c r="V74" t="n">
+        <v>91</v>
+      </c>
+      <c r="W74" t="n">
+        <v>37</v>
+      </c>
+      <c r="X74" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>63</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>3206</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>9159</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC74"/>
+  <dimension ref="A1:AC77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7060,10 +7060,10 @@
         <v>998</v>
       </c>
       <c r="AB73" t="n">
-        <v>351</v>
+        <v>423</v>
       </c>
       <c r="AC73" t="n">
-        <v>126885</v>
+        <v>126957</v>
       </c>
     </row>
     <row r="74">
@@ -7091,7 +7091,7 @@
         <v>13888</v>
       </c>
       <c r="H74" t="n">
-        <v>2262</v>
+        <v>2258</v>
       </c>
       <c r="I74" t="n">
         <v>3988</v>
@@ -7103,7 +7103,7 @@
         <v>5909</v>
       </c>
       <c r="L74" t="n">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M74" t="n">
         <v>311</v>
@@ -7118,7 +7118,7 @@
         <v>1849</v>
       </c>
       <c r="Q74" t="n">
-        <v>1656</v>
+        <v>1678</v>
       </c>
       <c r="R74" t="n">
         <v>10824</v>
@@ -7139,7 +7139,7 @@
         <v>1098</v>
       </c>
       <c r="X74" t="n">
-        <v>1124</v>
+        <v>1020</v>
       </c>
       <c r="Y74" t="n">
         <v>3082</v>
@@ -7151,10 +7151,283 @@
         <v>1214</v>
       </c>
       <c r="AB74" t="n">
-        <v>423</v>
+        <v>494</v>
       </c>
       <c r="AC74" t="n">
-        <v>136623</v>
+        <v>136607</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-08</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1177</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2033</v>
+      </c>
+      <c r="D75" t="n">
+        <v>2322</v>
+      </c>
+      <c r="E75" t="n">
+        <v>10727</v>
+      </c>
+      <c r="F75" t="n">
+        <v>4819</v>
+      </c>
+      <c r="G75" t="n">
+        <v>15134</v>
+      </c>
+      <c r="H75" t="n">
+        <v>2442</v>
+      </c>
+      <c r="I75" t="n">
+        <v>4242</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1053</v>
+      </c>
+      <c r="K75" t="n">
+        <v>6765</v>
+      </c>
+      <c r="L75" t="n">
+        <v>464</v>
+      </c>
+      <c r="M75" t="n">
+        <v>326</v>
+      </c>
+      <c r="N75" t="n">
+        <v>2943</v>
+      </c>
+      <c r="O75" t="n">
+        <v>6519</v>
+      </c>
+      <c r="P75" t="n">
+        <v>2031</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>1734</v>
+      </c>
+      <c r="R75" t="n">
+        <v>11587</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1233</v>
+      </c>
+      <c r="T75" t="n">
+        <v>15741</v>
+      </c>
+      <c r="U75" t="n">
+        <v>1918</v>
+      </c>
+      <c r="V75" t="n">
+        <v>2493</v>
+      </c>
+      <c r="W75" t="n">
+        <v>1222</v>
+      </c>
+      <c r="X75" t="n">
+        <v>1124</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>3205</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>41830</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>1438</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>494</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>147016</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-09</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1335</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2172</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2493</v>
+      </c>
+      <c r="E76" t="n">
+        <v>11925</v>
+      </c>
+      <c r="F76" t="n">
+        <v>5175</v>
+      </c>
+      <c r="G76" t="n">
+        <v>15879</v>
+      </c>
+      <c r="H76" t="n">
+        <v>2576</v>
+      </c>
+      <c r="I76" t="n">
+        <v>4412</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1069</v>
+      </c>
+      <c r="K76" t="n">
+        <v>7599</v>
+      </c>
+      <c r="L76" t="n">
+        <v>502</v>
+      </c>
+      <c r="M76" t="n">
+        <v>346</v>
+      </c>
+      <c r="N76" t="n">
+        <v>3123</v>
+      </c>
+      <c r="O76" t="n">
+        <v>7018</v>
+      </c>
+      <c r="P76" t="n">
+        <v>2156</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1809</v>
+      </c>
+      <c r="R76" t="n">
+        <v>12470</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1278</v>
+      </c>
+      <c r="T76" t="n">
+        <v>16929</v>
+      </c>
+      <c r="U76" t="n">
+        <v>1919</v>
+      </c>
+      <c r="V76" t="n">
+        <v>2542</v>
+      </c>
+      <c r="W76" t="n">
+        <v>1263</v>
+      </c>
+      <c r="X76" t="n">
+        <v>1202</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>3372</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>44411</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>1588</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>572</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>157135</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-10</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>1335</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2172</v>
+      </c>
+      <c r="D77" t="n">
+        <v>2493</v>
+      </c>
+      <c r="E77" t="n">
+        <v>11925</v>
+      </c>
+      <c r="F77" t="n">
+        <v>5546</v>
+      </c>
+      <c r="G77" t="n">
+        <v>16529</v>
+      </c>
+      <c r="H77" t="n">
+        <v>2598</v>
+      </c>
+      <c r="I77" t="n">
+        <v>4412</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1071</v>
+      </c>
+      <c r="K77" t="n">
+        <v>7599</v>
+      </c>
+      <c r="L77" t="n">
+        <v>502</v>
+      </c>
+      <c r="M77" t="n">
+        <v>362</v>
+      </c>
+      <c r="N77" t="n">
+        <v>3237</v>
+      </c>
+      <c r="O77" t="n">
+        <v>7256</v>
+      </c>
+      <c r="P77" t="n">
+        <v>2156</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1809</v>
+      </c>
+      <c r="R77" t="n">
+        <v>12470</v>
+      </c>
+      <c r="S77" t="n">
+        <v>1278</v>
+      </c>
+      <c r="T77" t="n">
+        <v>16929</v>
+      </c>
+      <c r="U77" t="n">
+        <v>1919</v>
+      </c>
+      <c r="V77" t="n">
+        <v>2542</v>
+      </c>
+      <c r="W77" t="n">
+        <v>1263</v>
+      </c>
+      <c r="X77" t="n">
+        <v>1296</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>3372</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>44411</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>1588</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>572</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>158642</v>
       </c>
     </row>
   </sheetData>
@@ -7168,7 +7441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC74"/>
+  <dimension ref="A1:AC77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13909,10 +14182,10 @@
         <v>44</v>
       </c>
       <c r="K74" t="n">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L74" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M74" t="n">
         <v>10</v>
@@ -13921,19 +14194,19 @@
         <v>106</v>
       </c>
       <c r="O74" t="n">
-        <v>410</v>
+        <v>488</v>
       </c>
       <c r="P74" t="n">
         <v>111</v>
       </c>
       <c r="Q74" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="R74" t="n">
         <v>845</v>
       </c>
       <c r="S74" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T74" t="n">
         <v>1394</v>
@@ -13963,7 +14236,280 @@
         <v>9</v>
       </c>
       <c r="AC74" t="n">
-        <v>9159</v>
+        <v>9268</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-08</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>38</v>
+      </c>
+      <c r="C75" t="n">
+        <v>108</v>
+      </c>
+      <c r="D75" t="n">
+        <v>66</v>
+      </c>
+      <c r="E75" t="n">
+        <v>874</v>
+      </c>
+      <c r="F75" t="n">
+        <v>183</v>
+      </c>
+      <c r="G75" t="n">
+        <v>997</v>
+      </c>
+      <c r="H75" t="n">
+        <v>37</v>
+      </c>
+      <c r="I75" t="n">
+        <v>165</v>
+      </c>
+      <c r="J75" t="n">
+        <v>49</v>
+      </c>
+      <c r="K75" t="n">
+        <v>355</v>
+      </c>
+      <c r="L75" t="n">
+        <v>15</v>
+      </c>
+      <c r="M75" t="n">
+        <v>11</v>
+      </c>
+      <c r="N75" t="n">
+        <v>111</v>
+      </c>
+      <c r="O75" t="n">
+        <v>574</v>
+      </c>
+      <c r="P75" t="n">
+        <v>114</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>109</v>
+      </c>
+      <c r="R75" t="n">
+        <v>927</v>
+      </c>
+      <c r="S75" t="n">
+        <v>38</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1503</v>
+      </c>
+      <c r="U75" t="n">
+        <v>87</v>
+      </c>
+      <c r="V75" t="n">
+        <v>95</v>
+      </c>
+      <c r="W75" t="n">
+        <v>39</v>
+      </c>
+      <c r="X75" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>63</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>3416</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>10027</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-09</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>40</v>
+      </c>
+      <c r="C76" t="n">
+        <v>114</v>
+      </c>
+      <c r="D76" t="n">
+        <v>69</v>
+      </c>
+      <c r="E76" t="n">
+        <v>962</v>
+      </c>
+      <c r="F76" t="n">
+        <v>196</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1062</v>
+      </c>
+      <c r="H76" t="n">
+        <v>39</v>
+      </c>
+      <c r="I76" t="n">
+        <v>172</v>
+      </c>
+      <c r="J76" t="n">
+        <v>49</v>
+      </c>
+      <c r="K76" t="n">
+        <v>379</v>
+      </c>
+      <c r="L76" t="n">
+        <v>16</v>
+      </c>
+      <c r="M76" t="n">
+        <v>11</v>
+      </c>
+      <c r="N76" t="n">
+        <v>118</v>
+      </c>
+      <c r="O76" t="n">
+        <v>610</v>
+      </c>
+      <c r="P76" t="n">
+        <v>124</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>110</v>
+      </c>
+      <c r="R76" t="n">
+        <v>972</v>
+      </c>
+      <c r="S76" t="n">
+        <v>42</v>
+      </c>
+      <c r="T76" t="n">
+        <v>1653</v>
+      </c>
+      <c r="U76" t="n">
+        <v>87</v>
+      </c>
+      <c r="V76" t="n">
+        <v>97</v>
+      </c>
+      <c r="W76" t="n">
+        <v>41</v>
+      </c>
+      <c r="X76" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>64</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>3608</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>33</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>10695</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-10</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>40</v>
+      </c>
+      <c r="C77" t="n">
+        <v>114</v>
+      </c>
+      <c r="D77" t="n">
+        <v>69</v>
+      </c>
+      <c r="E77" t="n">
+        <v>962</v>
+      </c>
+      <c r="F77" t="n">
+        <v>196</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1062</v>
+      </c>
+      <c r="H77" t="n">
+        <v>39</v>
+      </c>
+      <c r="I77" t="n">
+        <v>172</v>
+      </c>
+      <c r="J77" t="n">
+        <v>49</v>
+      </c>
+      <c r="K77" t="n">
+        <v>379</v>
+      </c>
+      <c r="L77" t="n">
+        <v>16</v>
+      </c>
+      <c r="M77" t="n">
+        <v>11</v>
+      </c>
+      <c r="N77" t="n">
+        <v>119</v>
+      </c>
+      <c r="O77" t="n">
+        <v>610</v>
+      </c>
+      <c r="P77" t="n">
+        <v>124</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>110</v>
+      </c>
+      <c r="R77" t="n">
+        <v>972</v>
+      </c>
+      <c r="S77" t="n">
+        <v>42</v>
+      </c>
+      <c r="T77" t="n">
+        <v>1653</v>
+      </c>
+      <c r="U77" t="n">
+        <v>87</v>
+      </c>
+      <c r="V77" t="n">
+        <v>97</v>
+      </c>
+      <c r="W77" t="n">
+        <v>41</v>
+      </c>
+      <c r="X77" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>64</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>3608</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>33</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>10696</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -7346,37 +7346,37 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1335</v>
+        <v>1447</v>
       </c>
       <c r="C77" t="n">
-        <v>2172</v>
+        <v>2258</v>
       </c>
       <c r="D77" t="n">
-        <v>2493</v>
+        <v>2613</v>
       </c>
       <c r="E77" t="n">
-        <v>11925</v>
+        <v>12599</v>
       </c>
       <c r="F77" t="n">
-        <v>5546</v>
+        <v>5558</v>
       </c>
       <c r="G77" t="n">
-        <v>16529</v>
+        <v>16692</v>
       </c>
       <c r="H77" t="n">
-        <v>2598</v>
+        <v>2682</v>
       </c>
       <c r="I77" t="n">
-        <v>4412</v>
+        <v>4599</v>
       </c>
       <c r="J77" t="n">
-        <v>1071</v>
+        <v>1093</v>
       </c>
       <c r="K77" t="n">
         <v>7599</v>
       </c>
       <c r="L77" t="n">
-        <v>502</v>
+        <v>519</v>
       </c>
       <c r="M77" t="n">
         <v>362</v>
@@ -7385,49 +7385,49 @@
         <v>3237</v>
       </c>
       <c r="O77" t="n">
-        <v>7256</v>
+        <v>7348</v>
       </c>
       <c r="P77" t="n">
-        <v>2156</v>
+        <v>2341</v>
       </c>
       <c r="Q77" t="n">
-        <v>1809</v>
+        <v>1835</v>
       </c>
       <c r="R77" t="n">
-        <v>12470</v>
+        <v>13275</v>
       </c>
       <c r="S77" t="n">
         <v>1278</v>
       </c>
       <c r="T77" t="n">
-        <v>16929</v>
+        <v>17062</v>
       </c>
       <c r="U77" t="n">
-        <v>1919</v>
+        <v>1928</v>
       </c>
       <c r="V77" t="n">
-        <v>2542</v>
+        <v>2576</v>
       </c>
       <c r="W77" t="n">
-        <v>1263</v>
+        <v>1302</v>
       </c>
       <c r="X77" t="n">
         <v>1296</v>
       </c>
       <c r="Y77" t="n">
-        <v>3372</v>
+        <v>3429</v>
       </c>
       <c r="Z77" t="n">
-        <v>44411</v>
+        <v>45444</v>
       </c>
       <c r="AA77" t="n">
-        <v>1588</v>
+        <v>1771</v>
       </c>
       <c r="AB77" t="n">
-        <v>572</v>
+        <v>688</v>
       </c>
       <c r="AC77" t="n">
-        <v>158642</v>
+        <v>162831</v>
       </c>
     </row>
   </sheetData>
@@ -14428,28 +14428,28 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C77" t="n">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="D77" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E77" t="n">
-        <v>962</v>
+        <v>1004</v>
       </c>
       <c r="F77" t="n">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G77" t="n">
-        <v>1062</v>
+        <v>1114</v>
       </c>
       <c r="H77" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I77" t="n">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J77" t="n">
         <v>49</v>
@@ -14458,7 +14458,7 @@
         <v>379</v>
       </c>
       <c r="L77" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M77" t="n">
         <v>11</v>
@@ -14467,49 +14467,49 @@
         <v>119</v>
       </c>
       <c r="O77" t="n">
-        <v>610</v>
+        <v>652</v>
       </c>
       <c r="P77" t="n">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="Q77" t="n">
         <v>110</v>
       </c>
       <c r="R77" t="n">
-        <v>972</v>
+        <v>1047</v>
       </c>
       <c r="S77" t="n">
         <v>42</v>
       </c>
       <c r="T77" t="n">
-        <v>1653</v>
+        <v>1714</v>
       </c>
       <c r="U77" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V77" t="n">
         <v>97</v>
       </c>
       <c r="W77" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="X77" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Y77" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Z77" t="n">
-        <v>3608</v>
+        <v>3709</v>
       </c>
       <c r="AA77" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AB77" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AC77" t="n">
-        <v>10696</v>
+        <v>11126</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC77"/>
+  <dimension ref="A1:AC78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7242,10 +7242,10 @@
         <v>1438</v>
       </c>
       <c r="AB75" t="n">
-        <v>494</v>
+        <v>573</v>
       </c>
       <c r="AC75" t="n">
-        <v>147016</v>
+        <v>147095</v>
       </c>
     </row>
     <row r="76">
@@ -7333,10 +7333,10 @@
         <v>1588</v>
       </c>
       <c r="AB76" t="n">
-        <v>572</v>
+        <v>688</v>
       </c>
       <c r="AC76" t="n">
-        <v>157135</v>
+        <v>157251</v>
       </c>
     </row>
     <row r="77">
@@ -7373,7 +7373,7 @@
         <v>1093</v>
       </c>
       <c r="K77" t="n">
-        <v>7599</v>
+        <v>8144</v>
       </c>
       <c r="L77" t="n">
         <v>519</v>
@@ -7391,13 +7391,13 @@
         <v>2341</v>
       </c>
       <c r="Q77" t="n">
-        <v>1835</v>
+        <v>1859</v>
       </c>
       <c r="R77" t="n">
         <v>13275</v>
       </c>
       <c r="S77" t="n">
-        <v>1278</v>
+        <v>1332</v>
       </c>
       <c r="T77" t="n">
         <v>17062</v>
@@ -7412,7 +7412,7 @@
         <v>1302</v>
       </c>
       <c r="X77" t="n">
-        <v>1296</v>
+        <v>1290</v>
       </c>
       <c r="Y77" t="n">
         <v>3429</v>
@@ -7427,7 +7427,98 @@
         <v>688</v>
       </c>
       <c r="AC77" t="n">
-        <v>162831</v>
+        <v>163448</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-11</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1460</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2258</v>
+      </c>
+      <c r="D78" t="n">
+        <v>2671</v>
+      </c>
+      <c r="E78" t="n">
+        <v>12599</v>
+      </c>
+      <c r="F78" t="n">
+        <v>5774</v>
+      </c>
+      <c r="G78" t="n">
+        <v>17587</v>
+      </c>
+      <c r="H78" t="n">
+        <v>2682</v>
+      </c>
+      <c r="I78" t="n">
+        <v>4599</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1100</v>
+      </c>
+      <c r="K78" t="n">
+        <v>8144</v>
+      </c>
+      <c r="L78" t="n">
+        <v>519</v>
+      </c>
+      <c r="M78" t="n">
+        <v>385</v>
+      </c>
+      <c r="N78" t="n">
+        <v>3320</v>
+      </c>
+      <c r="O78" t="n">
+        <v>7563</v>
+      </c>
+      <c r="P78" t="n">
+        <v>2341</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>1859</v>
+      </c>
+      <c r="R78" t="n">
+        <v>13768</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1332</v>
+      </c>
+      <c r="T78" t="n">
+        <v>17062</v>
+      </c>
+      <c r="U78" t="n">
+        <v>1928</v>
+      </c>
+      <c r="V78" t="n">
+        <v>2576</v>
+      </c>
+      <c r="W78" t="n">
+        <v>1302</v>
+      </c>
+      <c r="X78" t="n">
+        <v>1290</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>3429</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>46131</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>1771</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>747</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>166197</v>
       </c>
     </row>
   </sheetData>
@@ -7441,7 +7532,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC77"/>
+  <dimension ref="A1:AC78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14415,10 +14506,10 @@
         <v>33</v>
       </c>
       <c r="AB76" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AC76" t="n">
-        <v>10695</v>
+        <v>10697</v>
       </c>
     </row>
     <row r="77">
@@ -14455,7 +14546,7 @@
         <v>49</v>
       </c>
       <c r="K77" t="n">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="L77" t="n">
         <v>18</v>
@@ -14467,19 +14558,19 @@
         <v>119</v>
       </c>
       <c r="O77" t="n">
-        <v>652</v>
+        <v>672</v>
       </c>
       <c r="P77" t="n">
         <v>135</v>
       </c>
       <c r="Q77" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="R77" t="n">
         <v>1047</v>
       </c>
       <c r="S77" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="T77" t="n">
         <v>1714</v>
@@ -14488,7 +14579,7 @@
         <v>88</v>
       </c>
       <c r="V77" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="W77" t="n">
         <v>43</v>
@@ -14509,7 +14600,98 @@
         <v>11</v>
       </c>
       <c r="AC77" t="n">
-        <v>11126</v>
+        <v>11174</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-11</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>41</v>
+      </c>
+      <c r="C78" t="n">
+        <v>126</v>
+      </c>
+      <c r="D78" t="n">
+        <v>72</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1004</v>
+      </c>
+      <c r="F78" t="n">
+        <v>202</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1114</v>
+      </c>
+      <c r="H78" t="n">
+        <v>42</v>
+      </c>
+      <c r="I78" t="n">
+        <v>181</v>
+      </c>
+      <c r="J78" t="n">
+        <v>49</v>
+      </c>
+      <c r="K78" t="n">
+        <v>399</v>
+      </c>
+      <c r="L78" t="n">
+        <v>18</v>
+      </c>
+      <c r="M78" t="n">
+        <v>11</v>
+      </c>
+      <c r="N78" t="n">
+        <v>119</v>
+      </c>
+      <c r="O78" t="n">
+        <v>672</v>
+      </c>
+      <c r="P78" t="n">
+        <v>135</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>112</v>
+      </c>
+      <c r="R78" t="n">
+        <v>1047</v>
+      </c>
+      <c r="S78" t="n">
+        <v>45</v>
+      </c>
+      <c r="T78" t="n">
+        <v>1714</v>
+      </c>
+      <c r="U78" t="n">
+        <v>88</v>
+      </c>
+      <c r="V78" t="n">
+        <v>100</v>
+      </c>
+      <c r="W78" t="n">
+        <v>43</v>
+      </c>
+      <c r="X78" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>65</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>3709</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>11174</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -7358,7 +7358,7 @@
         <v>12599</v>
       </c>
       <c r="F77" t="n">
-        <v>5558</v>
+        <v>5559</v>
       </c>
       <c r="G77" t="n">
         <v>16692</v>
@@ -7427,7 +7427,7 @@
         <v>688</v>
       </c>
       <c r="AC77" t="n">
-        <v>163448</v>
+        <v>163449</v>
       </c>
     </row>
     <row r="78">
@@ -7440,25 +7440,25 @@
         <v>1460</v>
       </c>
       <c r="C78" t="n">
-        <v>2258</v>
+        <v>2343</v>
       </c>
       <c r="D78" t="n">
         <v>2671</v>
       </c>
       <c r="E78" t="n">
-        <v>12599</v>
+        <v>12919</v>
       </c>
       <c r="F78" t="n">
-        <v>5774</v>
+        <v>5808</v>
       </c>
       <c r="G78" t="n">
-        <v>17587</v>
+        <v>17599</v>
       </c>
       <c r="H78" t="n">
-        <v>2682</v>
+        <v>2799</v>
       </c>
       <c r="I78" t="n">
-        <v>4599</v>
+        <v>4819</v>
       </c>
       <c r="J78" t="n">
         <v>1100</v>
@@ -7467,7 +7467,7 @@
         <v>8144</v>
       </c>
       <c r="L78" t="n">
-        <v>519</v>
+        <v>545</v>
       </c>
       <c r="M78" t="n">
         <v>385</v>
@@ -7476,10 +7476,10 @@
         <v>3320</v>
       </c>
       <c r="O78" t="n">
-        <v>7563</v>
+        <v>8069</v>
       </c>
       <c r="P78" t="n">
-        <v>2341</v>
+        <v>2525</v>
       </c>
       <c r="Q78" t="n">
         <v>1859</v>
@@ -7491,34 +7491,34 @@
         <v>1332</v>
       </c>
       <c r="T78" t="n">
-        <v>17062</v>
+        <v>17939</v>
       </c>
       <c r="U78" t="n">
-        <v>1928</v>
+        <v>1989</v>
       </c>
       <c r="V78" t="n">
-        <v>2576</v>
+        <v>2808</v>
       </c>
       <c r="W78" t="n">
-        <v>1302</v>
+        <v>1396</v>
       </c>
       <c r="X78" t="n">
-        <v>1290</v>
+        <v>1295</v>
       </c>
       <c r="Y78" t="n">
-        <v>3429</v>
+        <v>3529</v>
       </c>
       <c r="Z78" t="n">
         <v>46131</v>
       </c>
       <c r="AA78" t="n">
-        <v>1771</v>
+        <v>1800</v>
       </c>
       <c r="AB78" t="n">
         <v>747</v>
       </c>
       <c r="AC78" t="n">
-        <v>166197</v>
+        <v>169099</v>
       </c>
     </row>
   </sheetData>
@@ -14610,28 +14610,28 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C78" t="n">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D78" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E78" t="n">
-        <v>1004</v>
+        <v>1035</v>
       </c>
       <c r="F78" t="n">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="G78" t="n">
-        <v>1114</v>
+        <v>1189</v>
       </c>
       <c r="H78" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I78" t="n">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="J78" t="n">
         <v>49</v>
@@ -14640,58 +14640,58 @@
         <v>399</v>
       </c>
       <c r="L78" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M78" t="n">
         <v>11</v>
       </c>
       <c r="N78" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O78" t="n">
-        <v>672</v>
+        <v>812</v>
       </c>
       <c r="P78" t="n">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q78" t="n">
         <v>112</v>
       </c>
       <c r="R78" t="n">
-        <v>1047</v>
+        <v>1087</v>
       </c>
       <c r="S78" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="T78" t="n">
-        <v>1714</v>
+        <v>1770</v>
       </c>
       <c r="U78" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="V78" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="W78" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="X78" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Y78" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="Z78" t="n">
-        <v>3709</v>
+        <v>3743</v>
       </c>
       <c r="AA78" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AB78" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC78" t="n">
-        <v>11174</v>
+        <v>11631</v>
       </c>
     </row>
   </sheetData>
